--- a/data/trans_dic/P36BPD01_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD01_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>95,19; 100,0</t>
+          <t>94,44; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>96,32; 99,57</t>
+          <t>96,28; 99,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>96,68; 99,42</t>
+          <t>96,7; 99,36</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,32; 99,35</t>
+          <t>97,31; 99,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>96,12; 98,28</t>
+          <t>96,06; 98,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>97,11; 98,61</t>
+          <t>97,12; 98,57</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,78; 95,83</t>
+          <t>91,92; 95,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>94,1; 96,43</t>
+          <t>94,03; 96,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,4; 95,6</t>
+          <t>93,48; 95,63</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,43; 93,37</t>
+          <t>88,22; 93,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,0; 94,87</t>
+          <t>89,95; 94,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,95; 93,79</t>
+          <t>90,16; 93,69</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>94,77; 97,71</t>
+          <t>94,83; 97,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>95,3; 97,72</t>
+          <t>95,26; 97,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>95,54; 97,35</t>
+          <t>95,49; 97,36</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>94,06; 95,88</t>
+          <t>93,97; 95,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>94,72; 96,12</t>
+          <t>94,74; 96,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>94,68; 95,78</t>
+          <t>94,56; 95,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36BPD01_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD01_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>98,62%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>98,08%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94,44; 100,0</t>
+          <t>97,38; 99,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>96,28; 99,61</t>
+          <t>96,49; 98,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>96,7; 99,36</t>
+          <t>97,4; 98,65</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>97,37%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>94,96%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,31; 99,42</t>
+          <t>92,35; 97,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>96,06; 98,29</t>
+          <t>93,78; 96,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>97,12; 98,57</t>
+          <t>93,49; 96,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>90,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>93,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>92,15%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,92; 95,75</t>
+          <t>87,99; 93,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>94,03; 96,31</t>
+          <t>90,34; 96,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,48; 95,63</t>
+          <t>90,33; 95,13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>96,73%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,22; 93,19</t>
+          <t>94,72; 97,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,95; 94,72</t>
+          <t>95,65; 97,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,16; 93,69</t>
+          <t>95,66; 97,53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>96,61%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>95,39%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>94,83; 97,6</t>
+          <t>94,09; 96,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>95,26; 97,62</t>
+          <t>94,86; 96,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>95,49; 97,36</t>
+          <t>94,66; 96,04</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>95,01%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>95,42%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>95,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>93,97; 95,83</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>94,74; 96,14</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>94,56; 95,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P36BPD01_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD01_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>97,38; 99,28</t>
+          <t>97,46; 99,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>96,49; 98,35</t>
+          <t>96,57; 98,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>97,4; 98,65</t>
+          <t>97,34; 98,64</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,35; 97,54</t>
+          <t>92,18; 97,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>93,78; 96,17</t>
+          <t>93,55; 96,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,49; 96,44</t>
+          <t>93,64; 96,58</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,99; 93,11</t>
+          <t>87,89; 93,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90,34; 96,54</t>
+          <t>90,16; 96,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,33; 95,13</t>
+          <t>90,22; 94,95</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94,72; 97,61</t>
+          <t>94,69; 97,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>95,65; 97,86</t>
+          <t>95,41; 97,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95,66; 97,53</t>
+          <t>95,59; 97,49</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>94,09; 96,29</t>
+          <t>94,22; 96,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94,86; 96,49</t>
+          <t>94,88; 96,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,66; 96,04</t>
+          <t>94,8; 96,1</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que utilizan como principal grasa para cocinar el aceite de oliva</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>626659</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>658936</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1285595</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>619307; 630981</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>652229; 664737</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1275957; 1293039</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1437</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2335</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1125749</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>909731</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2035480</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1094650; 1156329</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>894466; 919554</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2007296; 2070345</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1548</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>630731</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>865996</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1496726</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>609686; 647379</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>839067; 896889</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1465487; 1542195</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2471</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>893307</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1059089</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1952396</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>876010; 904448</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1043124; 1069226</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1929408; 1967676</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3185</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5093</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8278</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3276446</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3493752</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6770198</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3242677; 3318017</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3468372; 3524900</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6728011; 6820115</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>